--- a/rapport/Barème pour noter les algorithmes.xlsx
+++ b/rapport/Barème pour noter les algorithmes.xlsx
@@ -121,6 +121,7 @@
       <color rgb="FF000000"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -180,28 +181,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -457,147 +462,144 @@
   <dimension ref="A1:E997"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="4" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="54.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="4" style="1" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="5" t="n">
         <v>4136</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>4126</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>4125</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>4712</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>4262</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>2738</v>
-      </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>4057</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>4003</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>3917</v>
       </c>
     </row>
